--- a/미생물.xlsx
+++ b/미생물.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\verified_species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DE190-9DFC-484E-94C6-1D66269FB8F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22F2A91-25B6-48E0-BC56-4DF47D043CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22524" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1012,53 +1012,53 @@
     <col min="1" max="1" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/미생물.xlsx
+++ b/미생물.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\verified_species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22F2A91-25B6-48E0-BC56-4DF47D043CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785188D-B93C-4800-8B31-A887337CBE31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22524" windowHeight="10704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Escherichia coli</t>
   </si>
@@ -1001,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1012,53 +1012,68 @@
     <col min="1" max="1" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
